--- a/report/No6_テスト結果.xlsx
+++ b/report/No6_テスト結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="28" r:id="rId1"/>
@@ -113,12 +113,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>加入者情報管理：列名は加入者ID、ソートは昇順に設定し、決定ボタンをクリック</t>
-  </si>
-  <si>
-    <t>加入者IDが昇順に表示</t>
-  </si>
-  <si>
     <t>加入者情報のデータ</t>
     <rPh sb="0" eb="3">
       <t>カニュウシャ</t>
@@ -137,85 +131,6 @@
       <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>加入者情報管理：列名は加入者ID、ソートは降順に設定し、決定ボタンをクリック</t>
-  </si>
-  <si>
-    <t>加入者検索結果画面に加入者IDが降順に表示</t>
-  </si>
-  <si>
-    <t>加入者情報管理：列名はメールアドレス、ソートは昇順に設定し、決定ボタンをクリック</t>
-  </si>
-  <si>
-    <t>加入者検索結果画面にメールアドレスが昇順(文字コード順)に表示</t>
-  </si>
-  <si>
-    <t>加入者情報管理：列名はメールアドレス、ソートは降順に設定し、決定ボタンをクリック</t>
-  </si>
-  <si>
-    <t>加入者検索結果画面にメールアドレスが降順(文字コード順)に表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>加入者情報管理：列名は氏名、ソートは昇順に設定し、決定ボタンをクリック</t>
-  </si>
-  <si>
-    <t>加入者検索結果画面に氏名が昇順(文字コード順)に表示されていること。</t>
-  </si>
-  <si>
-    <t>加入者情報管理：列名は氏名、ソートは降順に設定し、決定ボタンをクリック</t>
-  </si>
-  <si>
-    <t>加入者検索結果画面に氏名が降順(文字コード順)に表示</t>
-  </si>
-  <si>
-    <t>加入者情報管理：列名は住所、ソートは昇順に設定し、決定ボタンをクリック</t>
-  </si>
-  <si>
-    <t>加入者検索結果画面に住所が昇順(文字コード順)に表示</t>
-  </si>
-  <si>
-    <t>加入者情報管理：列名は住所、ソートは降順に設定し、決定ボタンをクリック</t>
-  </si>
-  <si>
-    <t>加入者検索結果画面に住所が降順(文字コード順)に表示</t>
-  </si>
-  <si>
-    <t>加入者情報管理：列名は加入日、ソートは昇順に設定し、決定ボタンをクリック</t>
-  </si>
-  <si>
-    <t>加入者検索結果画面に加入日が昇順に表示</t>
-  </si>
-  <si>
-    <t>加入者情報管理：列名は加入日、ソートは降順に設定し、決定ボタンをクリック</t>
-  </si>
-  <si>
-    <t>加入者検索結果画面に加入日が降順に表示</t>
-  </si>
-  <si>
-    <t>加入者情報管理：列名は解約日、ソートは昇順に設定し、決定ボタンをクリック</t>
-  </si>
-  <si>
-    <t>加入者検索結果画面に解約日が昇順に表示</t>
-  </si>
-  <si>
-    <t>加入者情報管理：列名は解約日、ソートは降順に設定し、決定ボタンをクリック</t>
-  </si>
-  <si>
-    <t>加入者検索結果画面に解約日が降順に表示</t>
-  </si>
-  <si>
-    <t>加入者情報管理：列名は支払方法、ソートは昇順に設定し、決定ボタンをクリック</t>
-  </si>
-  <si>
-    <t>加入者検索結果画面に支払方法が昇順に表示</t>
-  </si>
-  <si>
-    <t>加入者情報管理：列名は支払方法、ソートは降順に設定し、決定ボタンをクリック</t>
-  </si>
-  <si>
-    <t>加入者検索結果画面に支払方法が降順に表示</t>
   </si>
   <si>
     <t>No19-1～19-4</t>
@@ -238,88 +153,228 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>加入者情報管理：条件に氏名を追加し、列名は氏名、ソートは降順に設定し、決定ボタンをクリック</t>
+    <t>①加入者情報管理：列名は加入者ID、ソートは昇順に設定し、決定ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>加入者検索結果画面に条件に指定された氏名を含むデータが降順に表示</t>
+    <t>②加入者IDが昇順に表示</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>加入者情報管理：条件にメールアドレスを追加し、列名は氏名、ソートは降順に設定し、決定ボタンをクリック</t>
+    <t>①加入者情報管理：列名は加入者ID、ソートは降順に設定し、決定ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>加入者検索結果画面に条件に指定されたメールアドレスを含むデータが降順に表示</t>
+    <t>②加入者検索結果画面に加入者IDが降順に表示</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>加入者情報管理：条件に氏名とメールアドレスを追加し、列名は氏名、ソートは降順に設定し、決定ボタンをクリック</t>
+    <t>①加入者情報管理：列名はメールアドレス、ソートは昇順に設定し、決定ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>加入者検索結果画面に条件に指定された氏名とメールアドレスを含むデータが降順に表示</t>
+    <t>②加入者検索結果画面にメールアドレスが昇順(文字コード順)に表示</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金情報管理：列名は料金ID、ソートは昇順に設定し、検索ボタンをクリック</t>
+    <t>①加入者情報管理：列名はメールアドレス、ソートは降順に設定し、決定ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金検索結果画面に料金IDが昇順に表示</t>
+    <t>②加入者検索結果画面にメールアドレスが降順(文字コード順)に表示</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金情報管理：列名は料金ID、ソートは降順に設定し、検索ボタンをクリック</t>
+    <t>①加入者情報管理：列名は氏名、ソートは昇順に設定し、決定ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金検索結果画面に料金IDが降順に表示</t>
+    <t>②加入者検索結果画面に氏名が昇順(文字コード順)に表示されていること。</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金情報管理：列名は料金名、ソートは昇順に設定し、検索ボタンをクリック</t>
+    <t>①加入者情報管理：列名は氏名、ソートは降順に設定し、決定ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金検索結果画面に料金名が昇順(文字コード順)に表示</t>
+    <t>②加入者検索結果画面に氏名が降順(文字コード順)に表示</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金情報管理：列名は料金名、ソートは降順に設定し、検索ボタンをクリック</t>
+    <t>①加入者情報管理：列名は住所、ソートは昇順に設定し、決定ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金検索結果画面に料金名が降順(文字コード順)に表示</t>
+    <t>②加入者検索結果画面に住所が昇順(文字コード順)に表示</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金情報管理：列名は月額料金、ソートは昇順に設定し、検索ボタンをクリック</t>
+    <t>①加入者情報管理：列名は住所、ソートは降順に設定し、決定ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金検索結果画面に月額料金が昇順に表示</t>
+    <t>②加入者検索結果画面に住所が降順(文字コード順)に表示</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金情報管理：列名は月額料金、ソートは降順に設定し、検索ボタンをクリック</t>
+    <t>①加入者情報管理：列名は加入日、ソートは昇順に設定し、決定ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金検索結果画面に月額料金が降順に表示</t>
+    <t>②加入者検索結果画面に加入日が昇順に表示</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金情報管理：列名は運用開始日、ソートは昇順に設定し、検索ボタンをクリック</t>
+    <t>①加入者情報管理：列名は加入日、ソートは降順に設定し、決定ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金検索結果画面に運用開始日が昇順に表示</t>
+    <t>②加入者検索結果画面に加入日が降順に表示</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金情報管理：列名は運用開始日、ソートは降順に設定し、検索ボタンをクリック</t>
+    <t>①加入者情報管理：列名は解約日、ソートは昇順に設定し、決定ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金検索結果画面に運用開始日が降順に表示</t>
+    <t>②加入者検索結果画面に解約日が昇順に表示</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金情報管理：列名は運用終了日、ソートは昇順に設定し、検索ボタンをクリック</t>
+    <t>①加入者情報管理：列名は解約日、ソートは降順に設定し、決定ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金検索結果画面に運用終了日が昇順に表示</t>
+    <t>②加入者検索結果画面に解約日が降順に表示</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金情報管理：列名は運用終了日、ソートは降順に設定し、検索ボタンをクリック</t>
+    <t>①加入者情報管理：列名は支払方法、ソートは昇順に設定し、決定ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金検索結果画面に運用終了日が降順に表示</t>
+    <t>②加入者検索結果画面に支払方法が昇順に表示</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金情報管理：条件に料金名を追加し、列名は料金名、ソートは降順に設定し、決定ボタンをクリック</t>
+    <t>①加入者情報管理：列名は支払方法、ソートは降順に設定し、決定ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金検索結果画面に条件に指定された料金名を含むデータが降順に表示</t>
+    <t>②加入者検索結果画面に支払方法が降順に表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①加入者情報管理：条件に氏名を追加し、列名は氏名、ソートは降順に設定し、決定ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②加入者検索結果画面に条件に指定された氏名を含むデータが降順に表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①加入者情報管理：条件にメールアドレスを追加し、列名は氏名、ソートは降順に設定し、決定ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②加入者検索結果画面に条件に指定されたメールアドレスを含むデータが降順に表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①加入者情報管理：条件に氏名とメールアドレスを追加し、列名は氏名、ソートは降順に設定し、決定ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②加入者検索結果画面に条件に指定された氏名とメールアドレスを含むデータが降順に表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①料金情報管理：列名は料金ID、ソートは昇順に設定し、検索ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②料金検索結果画面に料金IDが昇順に表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①料金情報管理：列名は料金ID、ソートは降順に設定し、検索ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②料金検索結果画面に料金IDが降順に表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①料金情報管理：列名は料金名、ソートは昇順に設定し、検索ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②料金検索結果画面に料金名が昇順(文字コード順)に表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①料金情報管理：列名は料金名、ソートは降順に設定し、検索ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②料金検索結果画面に料金名が降順(文字コード順)に表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①料金情報管理：列名は月額料金、ソートは昇順に設定し、検索ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②料金検索結果画面に月額料金が昇順に表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①料金情報管理：列名は月額料金、ソートは降順に設定し、検索ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②料金検索結果画面に月額料金が降順に表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①料金情報管理：列名は運用開始日、ソートは昇順に設定し、検索ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②料金検索結果画面に運用開始日が昇順に表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①料金情報管理：列名は運用開始日、ソートは降順に設定し、検索ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②料金検索結果画面に運用開始日が降順に表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①料金情報管理：列名は運用終了日、ソートは昇順に設定し、検索ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②料金検索結果画面に運用終了日が昇順に表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①料金情報管理：列名は運用終了日、ソートは降順に設定し、検索ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②料金検索結果画面に運用終了日が降順に表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①料金情報管理：条件に料金名を追加し、列名は料金名、ソートは降順に設定し、決定ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②料金検索結果画面に条件に指定された料金名を含むデータが降順に表示</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -742,14 +797,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>116709</xdr:rowOff>
+      <xdr:rowOff>88134</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -766,7 +821,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="685801"/>
+          <a:off x="800100" y="657226"/>
           <a:ext cx="9620250" cy="5431658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8485,14 +8540,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>105953</xdr:rowOff>
+      <xdr:rowOff>77378</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8509,7 +8564,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="685801"/>
+          <a:off x="800100" y="657226"/>
           <a:ext cx="9601200" cy="5420902"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9294,7 +9349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -9310,12 +9365,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -9329,8 +9384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q64" sqref="Q64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9345,12 +9400,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -9364,8 +9419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9380,12 +9435,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -9399,8 +9454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R61" sqref="R61"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9415,12 +9470,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -9434,8 +9489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q55" sqref="Q55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9450,12 +9505,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -9469,8 +9524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9485,12 +9540,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -9504,8 +9559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q57" sqref="Q57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9520,12 +9575,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -9539,8 +9594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R65" sqref="R65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9555,12 +9610,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -9574,8 +9629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="S53" sqref="S53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9609,8 +9664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9645,7 +9700,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T59" sqref="T59"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9679,7 +9734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
@@ -9778,7 +9833,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -9788,7 +9843,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="Q5" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>3</v>
@@ -9796,7 +9851,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>11</v>
@@ -9804,7 +9859,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="Q9" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>12</v>
@@ -9817,7 +9872,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="Q12" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>14</v>
@@ -9825,12 +9880,12 @@
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -9845,7 +9900,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9881,7 +9936,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9917,7 +9972,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9949,8 +10004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9983,7 +10038,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10016,7 +10071,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10048,8 +10103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10082,7 +10137,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10115,7 +10170,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S37" sqref="S36:S37"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10147,8 +10202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S53" sqref="S53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10163,7 +10218,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -10171,7 +10226,7 @@
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -10186,7 +10241,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10219,7 +10274,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10251,8 +10306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10267,12 +10322,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -10287,7 +10342,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10302,12 +10357,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -10321,8 +10376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10337,12 +10392,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -10356,8 +10411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="T61" sqref="T61"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10372,12 +10427,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -10392,7 +10447,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S67" sqref="S67"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10407,12 +10462,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -10426,8 +10481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10442,12 +10497,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -10633,15 +10688,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/report/No6_テスト結果.xlsx
+++ b/report/No6_テスト結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="28" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>No1-1～1-4</t>
     <phoneticPr fontId="1"/>
@@ -376,6 +376,14 @@
     <t>②料金検索結果画面に条件に指定された料金名を含むデータが降順に表示</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>No1-1,1-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No19-1,19-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -9734,8 +9742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9756,6 +9764,11 @@
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -9817,8 +9830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9839,6 +9852,11 @@
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
